--- a/CTR_Template.xlsx
+++ b/CTR_Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkang\pwapoc - Copy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkang\pwapoc - Copy\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314F7B80-D543-4EE8-81BA-4678E2065FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482973F0-B311-4202-93F8-6F140BA88F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="11385" tabRatio="500" xr2:uid="{0CCE4280-1008-4679-8CC0-B4ED2B2D57BF}"/>
+    <workbookView xWindow="40380" yWindow="1245" windowWidth="28800" windowHeight="8655" tabRatio="500" xr2:uid="{0CCE4280-1008-4679-8CC0-B4ED2B2D57BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Crew CTR" sheetId="2" r:id="rId1"/>
@@ -77,16 +77,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -103,12 +99,24 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -121,6 +129,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -471,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279A2858-BEAB-4EBA-A612-7C4A70FDCB93}">
   <dimension ref="A1:H178"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -485,292 +496,292 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" ht="6.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
       <c r="G4" s="1"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" ht="2.65" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -921,7 +932,7 @@
     <row r="177" ht="14.45" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="178" ht="14.45" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection sheet="1" scenarios="1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="28">
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
